--- a/Documents/ReviewComments.xlsx
+++ b/Documents/ReviewComments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbolak01c\Desktop\Documents\BSA Projects\Century\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Century\Century_old_testng\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>S.No</t>
   </si>
@@ -111,6 +114,26 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I observe that we have not implemented the isValidPage method (abstract method from Page.java) in all our page classes. We should implement this for every page to look for an element on that page to identify that it is in the same page
+ @Override
+ protected boolean isValidPage() {
+  return false;
+ }
+</t>
+  </si>
+  <si>
+    <t>src/test/java/com/comcast/century/cm/pages
+src/test/java/com/comcast/century/cm/pages</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>We should use the id/class locator instead of xpath when we are referencing the id/class property in the xpath string.
+For e.g. in the below webelements, we should change the findby attribute to id instead of xpath
+@FindBy(xpath = "//*[@id='addcontact-toolEl']")</t>
   </si>
 </sst>
 </file>
@@ -199,8 +222,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -475,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,9 +724,57 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5">
+        <v>42640</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5">
+        <v>42640</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ReviewComments.xlsx
+++ b/Documents/ReviewComments.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>S.No</t>
   </si>
@@ -134,6 +134,10 @@
     <t>We should use the id/class locator instead of xpath when we are referencing the id/class property in the xpath string.
 For e.g. in the below webelements, we should change the findby attribute to id instead of xpath
 @FindBy(xpath = "//*[@id='addcontact-toolEl']")</t>
+  </si>
+  <si>
+    <t>I still see that there are few link or button clicks that are not handled with page.java metho (Iclick)  
+for.e.g. - in AccountTabPageCM.java. Line num 156, line 189</t>
   </si>
 </sst>
 </file>
@@ -526,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +781,32 @@
         <v>42640</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5">
+        <v>42643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documents/ReviewComments.xlsx
+++ b/Documents/ReviewComments.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>S.No</t>
   </si>
@@ -138,6 +138,26 @@
   <si>
     <t>I still see that there are few link or button clicks that are not handled with page.java metho (Iclick)  
 for.e.g. - in AccountTabPageCM.java. Line num 156, line 189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSO Page classes have common methods that should be moved into Page.java or CenturyPage.java -
+clickBackButton, 
+clickSaveButton,
+clickContinueButton
+getResourceComponentID
+ClickCompleteButton </t>
+  </si>
+  <si>
+    <t>Many classes still don’t use the updated iClick method – for e.g. ManageTab.java#createLabel</t>
+  </si>
+  <si>
+    <t>Exceptions – wherever we catch exceptions, please write the exception details into logger using log.info and return the status with mstatus</t>
+  </si>
+  <si>
+    <t>Kalyan is working on OR per page – but we will also need a common OR file also for referencing to common objects in all page files – like worklist methods, continue button, save, frames etc</t>
+  </si>
+  <si>
+    <t>Rijin/Kesavan/Jatin/Kalyan</t>
   </si>
 </sst>
 </file>
@@ -530,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +827,110 @@
         <v>42643</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5">
+        <v>42646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documents/ReviewComments.xlsx
+++ b/Documents/ReviewComments.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Century\Century_old_testng\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>S.No</t>
   </si>
@@ -158,6 +154,15 @@
   </si>
   <si>
     <t>Rijin/Kesavan/Jatin/Kalyan</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Kesavan</t>
   </si>
 </sst>
 </file>
@@ -193,7 +198,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,19 +230,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -241,6 +243,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,191 +584,210 @@
     <col min="4" max="4" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="45" style="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="45" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="7">
         <v>42615</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="8">
         <v>42622</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="7">
         <v>42615</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="8">
         <v>42622</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="91.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="91.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="7">
         <v>42615</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="8">
         <v>42622</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="7">
         <v>42615</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="8">
         <v>42622</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="7">
         <v>42615</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="8">
         <v>42622</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -767,41 +806,47 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="2">
         <v>42640</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7">
         <v>42640</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J8" s="8">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -820,14 +865,14 @@
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -846,14 +891,14 @@
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="2">
         <v>42646</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -872,40 +917,46 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="2">
         <v>42646</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="7">
         <v>42646</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J12" s="8">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -924,10 +975,10 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="2">
         <v>42646</v>
       </c>
     </row>
